--- a/src/main/resource/DB.xlsx
+++ b/src/main/resource/DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Rex</t>
   </si>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DECIMAL(1,0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0:CAN MARK;1:CAN'T MARK;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,6 +116,27 @@
   </si>
   <si>
     <t>INSERT INTO `RMBIH_USER_T` VALUES (1,'admin','admin','administrator','','0','0','0',NULL,NULL,'1',now(),0);</t>
+  </si>
+  <si>
+    <t>RMBIH_PIC_T</t>
+  </si>
+  <si>
+    <t>PIC_URL</t>
+  </si>
+  <si>
+    <t>PIC_CONTENT</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>int(1)</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>PIC_ALT</t>
   </si>
 </sst>
 </file>
@@ -185,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -200,6 +217,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -601,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="4">
-        <v>42145</v>
+        <v>42522</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -609,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -651,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="str">
@@ -706,7 +729,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -759,7 +782,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" ref="E12:E16" si="3">A12&amp;" "&amp;B12&amp;" "&amp;C12&amp;", "</f>
@@ -827,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -835,138 +858,239 @@
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">DELSIGN DECIMAL(1,0) , </v>
+        <v xml:space="preserve">DELSIGN int(1) , </v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="18.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="18.75">
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="18.75">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:5" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
+      <c r="E23" s="3" t="str">
+        <f>"drop table "&amp;B22&amp;";"</f>
+        <v>drop table RMBIH_PIC_T;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f>"create table "&amp;B22&amp;" ("</f>
+        <v>create table RMBIH_PIC_T (</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="str">
+        <f>A25&amp;" "&amp;B25&amp;" "&amp;C25&amp;", "</f>
+        <v xml:space="preserve">ID int(8) NOT NULL PRIMARY KEY auto_increment , </v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="str">
+        <f t="shared" ref="E26:E34" si="4">A26&amp;" "&amp;B26&amp;" "&amp;C26&amp;", "</f>
+        <v xml:space="preserve">PIC_URL VARCHAR(100) , </v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PIC_CONTENT VARCHAR(100) , </v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">PIC_ALT VARCHAR(100) , </v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">USER_ID int(8) , </v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">INPUT_NAME VARCHAR(100) , </v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="18.75">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">INPUT_DATE DATETIME , </v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="18.75">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">UPDATE_NAME VARCHAR(100) , </v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">UPDATE_DATE DATETIME , </v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">DELSIGN int(1) , </v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
